--- a/AE Zaid/Satkhira DV-I/2022-23/Regulator/Chakbara Regulator/Regulator Loaction.xlsx
+++ b/AE Zaid/Satkhira DV-I/2022-23/Regulator/Chakbara Regulator/Regulator Loaction.xlsx
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>sl</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>x</t>
   </si>
@@ -30,13 +27,25 @@
     <t>y</t>
   </si>
   <si>
-    <t>Sora Khal Regulator</t>
-  </si>
-  <si>
-    <t>Chakbara Khal Regulator</t>
-  </si>
-  <si>
-    <t>Dumuria Khal Regulator</t>
+    <t>Sora Khal 1V Regulator</t>
+  </si>
+  <si>
+    <t>Chakbara Khal 3V Regulator</t>
+  </si>
+  <si>
+    <t>Dumuria Khal 1V Regulator</t>
+  </si>
+  <si>
+    <t>Chandnimukha 2V Regualtor</t>
+  </si>
+  <si>
+    <t>Gabura 2V Regualtor</t>
+  </si>
+  <si>
+    <t>SL</t>
+  </si>
+  <si>
+    <t>Distnce from Gauge Stations(KM)</t>
   </si>
 </sst>
 </file>
@@ -60,7 +69,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -68,13 +77,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -357,50 +393,105 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="24.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="32" style="1" customWidth="1"/>
+    <col min="2" max="3" width="24.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="5">
+        <v>733440</v>
+      </c>
+      <c r="C2" s="5">
+        <v>2459164</v>
+      </c>
+      <c r="D2" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1">
-        <v>733440</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2459164</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="5">
+        <v>731970</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2462742</v>
+      </c>
+      <c r="D3" s="5">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="5">
+        <v>731861</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2461640</v>
+      </c>
+      <c r="D4" s="5">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>5</v>
+      </c>
+      <c r="B5" s="5">
+        <v>736732</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2459118</v>
+      </c>
+      <c r="D5" s="5">
+        <v>14.64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="5">
+        <v>735345</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2465743</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>